--- a/data/trans_orig/P29A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>264214</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>243602</v>
+        <v>241002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287534</v>
+        <v>286668</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.540209644672687</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4980673057963121</v>
+        <v>0.492751774613142</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5878891835191238</v>
+        <v>0.5861186802953662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>178</v>
@@ -765,19 +765,19 @@
         <v>169100</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149758</v>
+        <v>148460</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189125</v>
+        <v>189748</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3640412190237306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3223995894653162</v>
+        <v>0.3196054235570003</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.407151161547344</v>
+        <v>0.4084925183588118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>445</v>
@@ -786,19 +786,19 @@
         <v>433314</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>403029</v>
+        <v>404234</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>467211</v>
+        <v>465586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4543964522542392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4226373849318013</v>
+        <v>0.423901200344545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.489942157688957</v>
+        <v>0.4882387514648397</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>224881</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201561</v>
+        <v>202427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245493</v>
+        <v>248093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.459790355327313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4121108164808762</v>
+        <v>0.4138813197046338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5019326942036879</v>
+        <v>0.5072482253868582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>308</v>
@@ -836,19 +836,19 @@
         <v>295409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275384</v>
+        <v>274761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314751</v>
+        <v>316049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6359587809762695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5928488384526558</v>
+        <v>0.5915074816411886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6776004105346838</v>
+        <v>0.6803945764430005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>535</v>
@@ -857,19 +857,19 @@
         <v>520290</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>486393</v>
+        <v>488018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>550575</v>
+        <v>549370</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5456035477457608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5100578423110435</v>
+        <v>0.5117612485351611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5773626150681989</v>
+        <v>0.5760987996554552</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>473233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>447194</v>
+        <v>446059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498060</v>
+        <v>498370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6550023438992711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6189618951274208</v>
+        <v>0.6173910606507412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6893655876532599</v>
+        <v>0.6897934101190649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>192</v>
@@ -982,19 +982,19 @@
         <v>206026</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>181465</v>
+        <v>181889</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>230217</v>
+        <v>229213</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.329927614444028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2905951482980448</v>
+        <v>0.2912738277018189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3686661843646843</v>
+        <v>0.3670590487812336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>651</v>
@@ -1003,19 +1003,19 @@
         <v>679259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>642862</v>
+        <v>642118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>715231</v>
+        <v>712199</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5042945709305646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4772729281291072</v>
+        <v>0.4767205762277256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.531000596487583</v>
+        <v>0.5287495579412033</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>249258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>224431</v>
+        <v>224121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275297</v>
+        <v>276432</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3449976561007289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3106344123467401</v>
+        <v>0.3102065898809351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3810381048725793</v>
+        <v>0.3826089393492588</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>398</v>
@@ -1053,19 +1053,19 @@
         <v>418433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394242</v>
+        <v>395246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>442994</v>
+        <v>442570</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.670072385555972</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6313338156353157</v>
+        <v>0.6329409512187665</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7094048517019551</v>
+        <v>0.7087261722981815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>631</v>
@@ -1074,19 +1074,19 @@
         <v>667690</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>631718</v>
+        <v>634750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>704087</v>
+        <v>704831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4957054290694354</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.468999403512417</v>
+        <v>0.4712504420587968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5227270718708928</v>
+        <v>0.5232794237722744</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>378409</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>353344</v>
+        <v>351311</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>402611</v>
+        <v>402324</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5992245576659531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5595345769644353</v>
+        <v>0.5563138577182035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6375498753186873</v>
+        <v>0.6370951239466037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -1199,19 +1199,19 @@
         <v>206411</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>181617</v>
+        <v>183608</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>232573</v>
+        <v>231159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3025166172242487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2661784881936426</v>
+        <v>0.2690967021816344</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3408599354144532</v>
+        <v>0.3387873848811074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>571</v>
@@ -1220,19 +1220,19 @@
         <v>584820</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>549137</v>
+        <v>550966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>620657</v>
+        <v>621110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4451325365673358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4179726531302125</v>
+        <v>0.4193648906333964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4724100839657059</v>
+        <v>0.4727547509619515</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>253088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228886</v>
+        <v>229173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278153</v>
+        <v>280186</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4007754423340469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3624501246813127</v>
+        <v>0.3629048760533963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4404654230355646</v>
+        <v>0.4436861422817964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>451</v>
@@ -1270,19 +1270,19 @@
         <v>475902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>449740</v>
+        <v>451154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>500696</v>
+        <v>498705</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6974833827757513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6591400645855472</v>
+        <v>0.6612126151188926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7338215118063578</v>
+        <v>0.7309032978183655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>686</v>
@@ -1291,19 +1291,19 @@
         <v>728990</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>693153</v>
+        <v>692700</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>764673</v>
+        <v>762844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5548674634326641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5275899160342942</v>
+        <v>0.5272452490380488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5820273468697875</v>
+        <v>0.5806351093666037</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>299070</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>274732</v>
+        <v>276511</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>321090</v>
+        <v>321472</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.583764993149109</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5362588637893497</v>
+        <v>0.5397308106331015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6267467884798293</v>
+        <v>0.6274927500757518</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -1416,19 +1416,19 @@
         <v>130267</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112680</v>
+        <v>111524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151674</v>
+        <v>151572</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.255274509936993</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2208090980626978</v>
+        <v>0.2185440196851209</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2972239997569777</v>
+        <v>0.2970235655672676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>406</v>
@@ -1437,19 +1437,19 @@
         <v>429337</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>396452</v>
+        <v>401072</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>462055</v>
+        <v>463149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4198425157895397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3876844370855207</v>
+        <v>0.3922023615116336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4518362826325138</v>
+        <v>0.4529063761968283</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>213242</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191222</v>
+        <v>190840</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>237580</v>
+        <v>235801</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.416235006850891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3732532115201707</v>
+        <v>0.3725072499242483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4637411362106502</v>
+        <v>0.4602691893668985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>372</v>
@@ -1487,19 +1487,19 @@
         <v>380036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>358629</v>
+        <v>358731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397623</v>
+        <v>398779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.744725490063007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7027760002430222</v>
+        <v>0.7029764344327324</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7791909019373022</v>
+        <v>0.7814559803148791</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -1508,19 +1508,19 @@
         <v>593278</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>560560</v>
+        <v>559466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626163</v>
+        <v>621543</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5801574842104603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5481637173674863</v>
+        <v>0.5470936238031717</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6123155629144795</v>
+        <v>0.6077976384883664</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>168690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149197</v>
+        <v>149726</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187313</v>
+        <v>188245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4430101257243771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3918188365693305</v>
+        <v>0.3932082884771287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4919177033418949</v>
+        <v>0.4943661514378612</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1633,19 +1633,19 @@
         <v>69490</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55790</v>
+        <v>55312</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85931</v>
+        <v>84936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1724399936281837</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1384447056225156</v>
+        <v>0.1372586533815524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2132404042979942</v>
+        <v>0.2107697446943309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>239</v>
@@ -1654,19 +1654,19 @@
         <v>238180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211934</v>
+        <v>214344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>262221</v>
+        <v>263188</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3038935378665729</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2704072459495312</v>
+        <v>0.2734815042058454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3345679108503381</v>
+        <v>0.3358020023152237</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>212091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193468</v>
+        <v>192536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>231584</v>
+        <v>231055</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5569898742756229</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5080822966581051</v>
+        <v>0.5056338485621386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6081811634306695</v>
+        <v>0.6067917115228715</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>327</v>
@@ -1704,19 +1704,19 @@
         <v>333489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>317048</v>
+        <v>318043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>347189</v>
+        <v>347667</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8275600063718163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7867595957020058</v>
+        <v>0.7892302553056689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8615552943774845</v>
+        <v>0.8627413466184476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>542</v>
@@ -1725,19 +1725,19 @@
         <v>545580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>521539</v>
+        <v>520572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>571826</v>
+        <v>569416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6961064621334271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6654320891496618</v>
+        <v>0.6641979976847763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7295927540504688</v>
+        <v>0.7265184957941546</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>122926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>106269</v>
+        <v>105442</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140576</v>
+        <v>138353</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4264320242561404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3686496558367423</v>
+        <v>0.3657811106355772</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.487659644846102</v>
+        <v>0.479948031831202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -1850,19 +1850,19 @@
         <v>27161</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19347</v>
+        <v>18604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38205</v>
+        <v>37948</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0792009304255743</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05641703736066488</v>
+        <v>0.05424886739991484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1114076562085678</v>
+        <v>0.1106577229383361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -1871,19 +1871,19 @@
         <v>150086</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130306</v>
+        <v>128940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173796</v>
+        <v>171727</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2377795808570145</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2064418044979966</v>
+        <v>0.2042768025763951</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2753415701132196</v>
+        <v>0.272063732809533</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>165340</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>147690</v>
+        <v>149913</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181997</v>
+        <v>182824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5735679757438596</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5123403551538981</v>
+        <v>0.5200519681687978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6313503441632576</v>
+        <v>0.6342188893644227</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>342</v>
@@ -1921,19 +1921,19 @@
         <v>315773</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>304729</v>
+        <v>304986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>323587</v>
+        <v>324330</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9207990695744257</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8885923437914323</v>
+        <v>0.8893422770616639</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9435829626393352</v>
+        <v>0.9457511326000853</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -1942,19 +1942,19 @@
         <v>481114</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>457404</v>
+        <v>459473</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>500894</v>
+        <v>502260</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7622204191429856</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7246584298867804</v>
+        <v>0.7279362671904669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7935581955020035</v>
+        <v>0.7957231974236049</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>69554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54718</v>
+        <v>55911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82683</v>
+        <v>82929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.334133735076534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2628625731302006</v>
+        <v>0.2685919418406124</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3972052067970037</v>
+        <v>0.3983853275601005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2067,19 +2067,19 @@
         <v>15400</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8110</v>
+        <v>8442</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25495</v>
+        <v>25377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04627681052940344</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02437144944879758</v>
+        <v>0.02536699851173757</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07661026200111612</v>
+        <v>0.07625837806399764</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -2088,19 +2088,19 @@
         <v>84954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70391</v>
+        <v>69685</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101868</v>
+        <v>102136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1570473907458236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1301250721990099</v>
+        <v>0.1288210727950891</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1883157241938949</v>
+        <v>0.1888099699743309</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>138608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125479</v>
+        <v>125233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153444</v>
+        <v>152251</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.665866264923466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6027947932029963</v>
+        <v>0.6016146724398994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7371374268697994</v>
+        <v>0.7314080581593876</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>276</v>
@@ -2138,19 +2138,19 @@
         <v>317383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>307288</v>
+        <v>307406</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>324673</v>
+        <v>324341</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9537231894705965</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.923389737998884</v>
+        <v>0.9237416219360022</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9756285505512026</v>
+        <v>0.9746330014882622</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>424</v>
@@ -2159,19 +2159,19 @@
         <v>455991</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>439077</v>
+        <v>438809</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>470554</v>
+        <v>471260</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8429526092541764</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.811684275806105</v>
+        <v>0.811190030025669</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8698749278009901</v>
+        <v>0.8711789272049107</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1776095</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.549431724284705</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>805</v>
@@ -2284,19 +2284,19 @@
         <v>823855</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2451746687844678</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2550</v>
@@ -2305,19 +2305,19 @@
         <v>2599950</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3943571309997094</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1456508</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1399456</v>
+        <v>1400139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1513937</v>
+        <v>1515285</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.450568275715295</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4329192460387386</v>
+        <v>0.4331305059925304</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4683335731420479</v>
+        <v>0.468750876253747</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2474</v>
@@ -2355,19 +2355,19 @@
         <v>2536424</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2485346</v>
+        <v>2484298</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2586444</v>
+        <v>2584170</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7548253312155322</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7396250210677104</v>
+        <v>0.7393129598840927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7697112172889916</v>
+        <v>0.7690343325692418</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3901</v>
@@ -2376,19 +2376,19 @@
         <v>3992932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3904871</v>
+        <v>3915828</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4062425</v>
+        <v>4081443</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6056428690002905</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5922858742527332</v>
+        <v>0.5939478795002517</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6161834738696025</v>
+        <v>0.6190681472227674</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>257052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>236065</v>
+        <v>236184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>279629</v>
+        <v>279891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5838520236387531</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.536182783165381</v>
+        <v>0.5364544116849558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6351329053156639</v>
+        <v>0.6357262846133362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -2744,19 +2744,19 @@
         <v>166446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>147068</v>
+        <v>146619</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>186276</v>
+        <v>185211</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3904787781073727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.345017699077189</v>
+        <v>0.3439651804955478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4369995145515849</v>
+        <v>0.4344996334766819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>415</v>
@@ -2765,19 +2765,19 @@
         <v>423498</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>395931</v>
+        <v>392669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>453609</v>
+        <v>451409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4887282882085487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4569155518648417</v>
+        <v>0.4531509508719725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5234769680088467</v>
+        <v>0.5209381805491279</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>183217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160640</v>
+        <v>160378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>204204</v>
+        <v>204085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.416147976361247</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3648670946843362</v>
+        <v>0.3642737153866638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.463817216834619</v>
+        <v>0.4635455883150442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -2815,19 +2815,19 @@
         <v>259816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239986</v>
+        <v>241051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279194</v>
+        <v>279643</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6095212218926273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5630004854484151</v>
+        <v>0.5655003665233181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6549823009228111</v>
+        <v>0.6560348195044522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>434</v>
@@ -2836,19 +2836,19 @@
         <v>443033</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>412922</v>
+        <v>415122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470600</v>
+        <v>473862</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5112717117914514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4765230319911534</v>
+        <v>0.4790618194508722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5430844481351584</v>
+        <v>0.5468490491280275</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>414722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>389737</v>
+        <v>389557</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>439483</v>
+        <v>440126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6344068907987708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5961865004956213</v>
+        <v>0.5959112970951311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6722842039734903</v>
+        <v>0.6732671583157563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -2961,19 +2961,19 @@
         <v>183193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160878</v>
+        <v>161423</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206807</v>
+        <v>206740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.306828234662943</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2694531761692272</v>
+        <v>0.2703656784125649</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3463785307306502</v>
+        <v>0.3462660322069689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>579</v>
@@ -2982,19 +2982,19 @@
         <v>597916</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>557825</v>
+        <v>558767</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>632394</v>
+        <v>634686</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4780373197610999</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4459841886354303</v>
+        <v>0.4467375708731741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5056028649169847</v>
+        <v>0.5074350681334678</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>238994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214233</v>
+        <v>213590</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263979</v>
+        <v>264159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3655931092012292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3277157960265096</v>
+        <v>0.3267328416842435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4038134995043785</v>
+        <v>0.4040887029048684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>386</v>
@@ -3032,19 +3032,19 @@
         <v>413862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>390248</v>
+        <v>390315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>436177</v>
+        <v>435632</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.693171765337057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6536214692693503</v>
+        <v>0.6537339677930312</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7305468238307731</v>
+        <v>0.7296343215874352</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>615</v>
@@ -3053,19 +3053,19 @@
         <v>652856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>618378</v>
+        <v>616086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>692947</v>
+        <v>692005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5219626802389001</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4943971350830152</v>
+        <v>0.4925649318665321</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5540158113645697</v>
+        <v>0.5532624291268258</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>389425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>361131</v>
+        <v>364101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>415656</v>
+        <v>413479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5968066215876998</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5534452585305154</v>
+        <v>0.5579957224510449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6370064614883685</v>
+        <v>0.6336696588566403</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -3178,19 +3178,19 @@
         <v>200358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175587</v>
+        <v>176522</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224340</v>
+        <v>226017</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2907205002011172</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2547774565559912</v>
+        <v>0.2561343474352502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3255175636679932</v>
+        <v>0.3279506114955409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>557</v>
@@ -3199,19 +3199,19 @@
         <v>589784</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>554059</v>
+        <v>553291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>627407</v>
+        <v>628865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.439581316279386</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4129545036639684</v>
+        <v>0.4123825361344989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4676233875573551</v>
+        <v>0.4687099375849784</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>263090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236859</v>
+        <v>239036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291384</v>
+        <v>288414</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4031933784123001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3629935385116315</v>
+        <v>0.3663303411433598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4465547414694847</v>
+        <v>0.4420042775489552</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>462</v>
@@ -3249,19 +3249,19 @@
         <v>488821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>464839</v>
+        <v>463162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>513592</v>
+        <v>512657</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7092794997988828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6744824363320067</v>
+        <v>0.6720493885044589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7452225434440087</v>
+        <v>0.7438656525647498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>712</v>
@@ -3270,19 +3270,19 @@
         <v>751910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>714287</v>
+        <v>712829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>787635</v>
+        <v>788403</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.560418683720614</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5323766124426449</v>
+        <v>0.5312900624150217</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5870454963360318</v>
+        <v>0.5876174638655013</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>353309</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>328477</v>
+        <v>328596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>377881</v>
+        <v>376936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6077875890256363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.565069661327961</v>
+        <v>0.5652752606565957</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6500590569968986</v>
+        <v>0.6484331972984149</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -3395,19 +3395,19 @@
         <v>186650</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163378</v>
+        <v>163447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211924</v>
+        <v>211869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.310514513608591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2717985337968754</v>
+        <v>0.2719128593260748</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3525609770380086</v>
+        <v>0.3524693671542312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>480</v>
@@ -3416,19 +3416,19 @@
         <v>539959</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>503285</v>
+        <v>501171</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>574766</v>
+        <v>574801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4566626240233245</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4256462346484369</v>
+        <v>0.4238583115945208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4861006954933177</v>
+        <v>0.4861298254311318</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>227994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203422</v>
+        <v>204367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>252826</v>
+        <v>252707</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3922124109743636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3499409430031011</v>
+        <v>0.3515668027015854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4349303386720385</v>
+        <v>0.4347247393434043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -3466,19 +3466,19 @@
         <v>414449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>389175</v>
+        <v>389230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>437721</v>
+        <v>437652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6894854863914089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6474390229619913</v>
+        <v>0.6475306328457683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7282014662031245</v>
+        <v>0.7280871406739252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>564</v>
@@ -3487,19 +3487,19 @@
         <v>642443</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>607636</v>
+        <v>607601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>679117</v>
+        <v>681231</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5433373759766755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5138993045066823</v>
+        <v>0.5138701745688681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.574353765351563</v>
+        <v>0.5761416884054792</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>205679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185312</v>
+        <v>185278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>226357</v>
+        <v>226804</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5035213597755126</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4536612796396928</v>
+        <v>0.453576375909479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.554143005433019</v>
+        <v>0.5552355806335713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -3612,19 +3612,19 @@
         <v>94540</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77458</v>
+        <v>76820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113542</v>
+        <v>114106</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2161971149076911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1771336746344783</v>
+        <v>0.1756732663783948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2596498757565622</v>
+        <v>0.2609402139125586</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>271</v>
@@ -3633,19 +3633,19 @@
         <v>300220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>272802</v>
+        <v>271733</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>330509</v>
+        <v>329388</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3549662305317816</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3225485374811655</v>
+        <v>0.3212845248909518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3907787447915065</v>
+        <v>0.3894533029025044</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>202803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182125</v>
+        <v>181678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>223170</v>
+        <v>223204</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4964786402244874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4458569945669813</v>
+        <v>0.4447644193664291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5463387203603074</v>
+        <v>0.546423624090521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>314</v>
@@ -3683,19 +3683,19 @@
         <v>342748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>323746</v>
+        <v>323182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359830</v>
+        <v>360468</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7838028850923089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7403501242434378</v>
+        <v>0.7390597860874422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8228663253655218</v>
+        <v>0.8243267336216055</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>501</v>
@@ -3704,19 +3704,19 @@
         <v>545550</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>515261</v>
+        <v>516382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>572968</v>
+        <v>574037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6450337694682184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6092212552084935</v>
+        <v>0.6105466970974956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6774514625188345</v>
+        <v>0.6787154751090482</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>138446</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121255</v>
+        <v>119942</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156034</v>
+        <v>156410</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.46966410843153</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4113449664275531</v>
+        <v>0.4068894783349379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5293284560757701</v>
+        <v>0.5306045255444974</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -3829,19 +3829,19 @@
         <v>43813</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31513</v>
+        <v>30958</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60210</v>
+        <v>57403</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1261242709983188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09071814280830362</v>
+        <v>0.08911937449173726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1733272390334052</v>
+        <v>0.1652479284053626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -3850,19 +3850,19 @@
         <v>182259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>158281</v>
+        <v>158582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>207978</v>
+        <v>206525</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2838244315365517</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2464849363406763</v>
+        <v>0.2469532404582601</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3238767967575684</v>
+        <v>0.3216131682979352</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>156331</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138743</v>
+        <v>138367</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>173522</v>
+        <v>174835</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5303358915684701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4706715439242298</v>
+        <v>0.4693954744555025</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5886550335724469</v>
+        <v>0.5931105216650622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>300</v>
@@ -3900,19 +3900,19 @@
         <v>303563</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>287166</v>
+        <v>289973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>315863</v>
+        <v>316418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8738757290016812</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8266727609665959</v>
+        <v>0.8347520715946375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9092818571916964</v>
+        <v>0.9108806255082631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>444</v>
@@ -3921,19 +3921,19 @@
         <v>459894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>434175</v>
+        <v>435628</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>483872</v>
+        <v>483571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7161755684634483</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6761232032424319</v>
+        <v>0.6783868317020649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7535150636593237</v>
+        <v>0.7530467595417398</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>79194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63812</v>
+        <v>63196</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94727</v>
+        <v>95025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3252153440336265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2620454544522141</v>
+        <v>0.259516599329092</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.389000075881584</v>
+        <v>0.3902231583073321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4046,19 +4046,19 @@
         <v>19903</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12056</v>
+        <v>11806</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30454</v>
+        <v>30435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0513113736026114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03108171627968775</v>
+        <v>0.03043741885054852</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07851324026446899</v>
+        <v>0.0784637212183075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -4067,19 +4067,19 @@
         <v>99097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81054</v>
+        <v>81023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>120569</v>
+        <v>122405</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1569494635974214</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1283735274088879</v>
+        <v>0.1283233349789352</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1909569401203384</v>
+        <v>0.1938647055386742</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>164320</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>148787</v>
+        <v>148489</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>179702</v>
+        <v>180318</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6747846559663735</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6109999241184161</v>
+        <v>0.6097768416926679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7379545455477859</v>
+        <v>0.7404834006709082</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>331</v>
@@ -4117,19 +4117,19 @@
         <v>367978</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>357427</v>
+        <v>357446</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>375825</v>
+        <v>376075</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9486886263973886</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.921486759735531</v>
+        <v>0.9215362787816928</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9689182837203122</v>
+        <v>0.9695625811494515</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>479</v>
@@ -4138,19 +4138,19 @@
         <v>532298</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>510826</v>
+        <v>508990</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>550341</v>
+        <v>550372</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8430505364025787</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8090430598796617</v>
+        <v>0.8061352944613256</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8716264725911123</v>
+        <v>0.8716766650210647</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1837828</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1774135</v>
+        <v>1771575</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1898444</v>
+        <v>1893930</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.56124154546533</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5417908981698415</v>
+        <v>0.5410088729545064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5797526621171611</v>
+        <v>0.5783740792954402</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>822</v>
@@ -4263,19 +4263,19 @@
         <v>894904</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>843060</v>
+        <v>842200</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>947068</v>
+        <v>946304</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2567033003525215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.241832000728409</v>
+        <v>0.2415850684756998</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2716665644391829</v>
+        <v>0.2714474600550966</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2552</v>
@@ -4284,19 +4284,19 @@
         <v>2732732</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2655018</v>
+        <v>2653261</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2817787</v>
+        <v>2814858</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4042074143537748</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3927125951333919</v>
+        <v>0.3924526499848574</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.416788199352423</v>
+        <v>0.4163550058203425</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1436748</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1376132</v>
+        <v>1380646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1500441</v>
+        <v>1503001</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4387584545346701</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4202473378828389</v>
+        <v>0.4216259207045598</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4582091018301585</v>
+        <v>0.4589911270454936</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2411</v>
@@ -4334,19 +4334,19 @@
         <v>2591237</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2539073</v>
+        <v>2539837</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2643081</v>
+        <v>2643941</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7432966996474785</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7283334355608171</v>
+        <v>0.7285525399449032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.758167999271591</v>
+        <v>0.7584149315243002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3749</v>
@@ -4355,19 +4355,19 @@
         <v>4027984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3942929</v>
+        <v>3945858</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4105698</v>
+        <v>4107455</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5957925856462252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5832118006475768</v>
+        <v>0.5836449941796572</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6072874048666079</v>
+        <v>0.6075473500151426</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>238128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215854</v>
+        <v>217278</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>258601</v>
+        <v>258527</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5869089583512911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5320103751883323</v>
+        <v>0.5355208269024906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6373670600432243</v>
+        <v>0.6371843088427999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>166</v>
@@ -4723,19 +4723,19 @@
         <v>162059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>144673</v>
+        <v>141650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182559</v>
+        <v>180602</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4134326727252309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3690784615820347</v>
+        <v>0.3613671706657328</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4657316262298803</v>
+        <v>0.4607375828868196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>391</v>
@@ -4744,19 +4744,19 @@
         <v>400187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>372847</v>
+        <v>374938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>427507</v>
+        <v>427430</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5016658001276403</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4673926675803926</v>
+        <v>0.4700140704147422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5359128790903137</v>
+        <v>0.5358167928261353</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>167605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147132</v>
+        <v>147206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189879</v>
+        <v>188455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4130910416487089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3626329399567756</v>
+        <v>0.3628156911572001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4679896248116678</v>
+        <v>0.4644791730975094</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -4794,19 +4794,19 @@
         <v>229925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>209425</v>
+        <v>211382</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247311</v>
+        <v>250334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5865673272747691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5342683737701197</v>
+        <v>0.5392624171131803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6309215384179653</v>
+        <v>0.6386328293342671</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>389</v>
@@ -4815,19 +4815,19 @@
         <v>397530</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>370210</v>
+        <v>370287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>424870</v>
+        <v>422779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4983341998723597</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4640871209096863</v>
+        <v>0.4641832071738647</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5326073324196073</v>
+        <v>0.5299859295852577</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>344192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>320322</v>
+        <v>318538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>365701</v>
+        <v>367668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5960103219185771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5546767538638728</v>
+        <v>0.5515876873947247</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6332560851073248</v>
+        <v>0.6366615810180876</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -4940,19 +4940,19 @@
         <v>217647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197298</v>
+        <v>195218</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242143</v>
+        <v>242030</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3916748334932062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3550549116176766</v>
+        <v>0.3513125994690823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4357580234527086</v>
+        <v>0.4355554892020413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>554</v>
@@ -4961,19 +4961,19 @@
         <v>561839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>527711</v>
+        <v>529315</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>597690</v>
+        <v>594459</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4958090869232271</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4656922337913416</v>
+        <v>0.4671073884927729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5274471768575064</v>
+        <v>0.5245953126581073</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>233301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>211792</v>
+        <v>209825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257171</v>
+        <v>258955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4039896780814229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3667439148926753</v>
+        <v>0.3633384189819124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4453232461361272</v>
+        <v>0.4484123126052753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -5011,19 +5011,19 @@
         <v>338035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313539</v>
+        <v>313652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358384</v>
+        <v>360464</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6083251665067938</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5642419765472916</v>
+        <v>0.5644445107979585</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6449450883823235</v>
+        <v>0.6486874005309173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>571</v>
@@ -5032,19 +5032,19 @@
         <v>571337</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>535486</v>
+        <v>538717</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>605465</v>
+        <v>603861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5041909130767729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4725528231424936</v>
+        <v>0.4754046873418927</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5343077662086584</v>
+        <v>0.5328926115072271</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>409034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>381701</v>
+        <v>384028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>433761</v>
+        <v>432330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6304348592323965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5883073962088953</v>
+        <v>0.5918938526726228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6685450003336558</v>
+        <v>0.6663404145772782</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -5157,19 +5157,19 @@
         <v>233469</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209751</v>
+        <v>208771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259228</v>
+        <v>254807</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3588594757993055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3224037618942655</v>
+        <v>0.3208977008197775</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3984543736298399</v>
+        <v>0.391657571490458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>626</v>
@@ -5178,19 +5178,19 @@
         <v>642503</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>608908</v>
+        <v>605901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>680504</v>
+        <v>676018</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.494461952969327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4686073760746401</v>
+        <v>0.4662933220767749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5237066044682749</v>
+        <v>0.5202541626411239</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>239779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215052</v>
+        <v>216483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267112</v>
+        <v>264785</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3695651407676034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3314549996663441</v>
+        <v>0.3336595854227218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4116926037911048</v>
+        <v>0.4081061473273772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>421</v>
@@ -5228,19 +5228,19 @@
         <v>417116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>391357</v>
+        <v>395778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>440834</v>
+        <v>441814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6411405242006945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6015456263701602</v>
+        <v>0.608342428509542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6775962381057344</v>
+        <v>0.6791022991802225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -5249,19 +5249,19 @@
         <v>656896</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618895</v>
+        <v>623381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>690491</v>
+        <v>693498</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.505538047030673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.476293395531725</v>
+        <v>0.4797458373588762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5313926239253598</v>
+        <v>0.5337066779232251</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>370178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>343646</v>
+        <v>345324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>393640</v>
+        <v>398090</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5898299174559979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5475549806042228</v>
+        <v>0.5502282260866702</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6272142230621055</v>
+        <v>0.6343049195478502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>220</v>
@@ -5374,19 +5374,19 @@
         <v>242127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216175</v>
+        <v>217171</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>267604</v>
+        <v>268310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3829979876320126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3419465512005809</v>
+        <v>0.3435223926126359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.423298071054501</v>
+        <v>0.4244156552454703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>553</v>
@@ -5395,19 +5395,19 @@
         <v>612305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>577927</v>
+        <v>571586</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>650645</v>
+        <v>647369</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.486037399315689</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4587493882586484</v>
+        <v>0.4537155965539371</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5164716618351683</v>
+        <v>0.5138708582865404</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>257423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233961</v>
+        <v>229511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>283955</v>
+        <v>282277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4101700825440021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3727857769378947</v>
+        <v>0.3656950804521502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4524450193957774</v>
+        <v>0.4497717739133298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -5445,19 +5445,19 @@
         <v>390061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364584</v>
+        <v>363878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>416013</v>
+        <v>415017</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6170020123679875</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5767019289454992</v>
+        <v>0.57558434475453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6580534487994192</v>
+        <v>0.6564776073873642</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>598</v>
@@ -5466,19 +5466,19 @@
         <v>647484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>609144</v>
+        <v>612420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>681862</v>
+        <v>688203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5139626006843111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4835283381648317</v>
+        <v>0.4861291417134597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.541250611741352</v>
+        <v>0.546284403446063</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>264273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>242724</v>
+        <v>242049</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284124</v>
+        <v>285629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5801280247606528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5328226704707957</v>
+        <v>0.5313414404242345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6237033451307593</v>
+        <v>0.6270067436061353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -5591,19 +5591,19 @@
         <v>121266</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103081</v>
+        <v>101819</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142245</v>
+        <v>140621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2494619619161456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2120530608949746</v>
+        <v>0.2094560991313759</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2926192787456715</v>
+        <v>0.2892772007532081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>339</v>
@@ -5612,19 +5612,19 @@
         <v>385540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>354934</v>
+        <v>353624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414894</v>
+        <v>415844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.409427942677937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3769253186196847</v>
+        <v>0.3755341866579784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4406007309726791</v>
+        <v>0.4416099181725225</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>191270</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171419</v>
+        <v>169914</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>212819</v>
+        <v>213494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4198719752393472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3762966548692406</v>
+        <v>0.3729932563938648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4671773295292042</v>
+        <v>0.4686585595757655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -5662,19 +5662,19 @@
         <v>364845</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>343866</v>
+        <v>345490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>383030</v>
+        <v>384292</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7505380380838544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7073807212543285</v>
+        <v>0.7107227992467918</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7879469391050253</v>
+        <v>0.790543900868624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>489</v>
@@ -5683,19 +5683,19 @@
         <v>556115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>526761</v>
+        <v>525811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>586721</v>
+        <v>588031</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.590572057322063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.559399269027321</v>
+        <v>0.5583900818274775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6230746813803153</v>
+        <v>0.6244658133420216</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>163855</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>147428</v>
+        <v>147000</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>182766</v>
+        <v>182596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5079648808478527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.457040162895838</v>
+        <v>0.4557123538395478</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5665904512239468</v>
+        <v>0.5660640588487219</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -5808,19 +5808,19 @@
         <v>64800</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50198</v>
+        <v>50806</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79928</v>
+        <v>81445</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1723219609688356</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1334906533070155</v>
+        <v>0.1351091839881</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2125532290152519</v>
+        <v>0.2165883430505035</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>218</v>
@@ -5829,19 +5829,19 @@
         <v>228655</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202703</v>
+        <v>204315</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>255636</v>
+        <v>254185</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3272998104913263</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2901511951576822</v>
+        <v>0.2924596627646227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.365921571217546</v>
+        <v>0.3638443299747476</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>158717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139806</v>
+        <v>139976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>175144</v>
+        <v>175572</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4920351191521473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4334095487760532</v>
+        <v>0.433935941151278</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.542959837104162</v>
+        <v>0.5442876461604523</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>294</v>
@@ -5879,19 +5879,19 @@
         <v>311238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>296110</v>
+        <v>294593</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325840</v>
+        <v>325232</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8276780390311643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7874467709847487</v>
+        <v>0.7834116569494967</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8665093466929845</v>
+        <v>0.8648908160119</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>448</v>
@@ -5900,19 +5900,19 @@
         <v>469955</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>442974</v>
+        <v>444425</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495907</v>
+        <v>494295</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6727001895086736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6340784287824538</v>
+        <v>0.6361556700252522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7098488048423178</v>
+        <v>0.7075403372353773</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>88345</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74425</v>
+        <v>73883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102371</v>
+        <v>102466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3536771423819496</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2979490295295573</v>
+        <v>0.2957796344399968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4098285998060059</v>
+        <v>0.4102071813627047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6025,19 +6025,19 @@
         <v>30619</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19582</v>
+        <v>19826</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44536</v>
+        <v>45752</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07742358298565261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04951584990203731</v>
+        <v>0.05013160530762917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1126137222414044</v>
+        <v>0.1156885320370538</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -6046,19 +6046,19 @@
         <v>118964</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100306</v>
+        <v>100155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138690</v>
+        <v>141816</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1843647252408949</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1554491998418357</v>
+        <v>0.155215244593488</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2149345069802768</v>
+        <v>0.2197800838744351</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>161445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>147419</v>
+        <v>147324</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>175365</v>
+        <v>175907</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6463228576180504</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5901714001939941</v>
+        <v>0.5897928186372953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7020509704704427</v>
+        <v>0.7042203655600032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -6096,19 +6096,19 @@
         <v>364856</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>350939</v>
+        <v>349723</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>375893</v>
+        <v>375649</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9225764170143473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.887386277758596</v>
+        <v>0.8843114679629455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9504841500979627</v>
+        <v>0.9498683946923708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>469</v>
@@ -6117,19 +6117,19 @@
         <v>526301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>506575</v>
+        <v>503449</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>544959</v>
+        <v>545110</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8156352747591051</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7850654930197229</v>
+        <v>0.7802199161255651</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8445508001581638</v>
+        <v>0.8447847554065121</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1878006</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1821687</v>
+        <v>1815089</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1938203</v>
+        <v>1936022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5712487024919554</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5541174959153125</v>
+        <v>0.5521106653349013</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5895592624350849</v>
+        <v>0.588895667768373</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1027</v>
@@ -6242,19 +6242,19 @@
         <v>1071986</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1015186</v>
+        <v>1016326</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1126891</v>
+        <v>1129597</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3073298513986732</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2910457329842283</v>
+        <v>0.2913726335161162</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3230707321412163</v>
+        <v>0.3238464347878498</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2803</v>
@@ -6263,19 +6263,19 @@
         <v>2949993</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2863798</v>
+        <v>2862290</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3027170</v>
+        <v>3031437</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4353840613056019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.422662718392703</v>
+        <v>0.4224402528644248</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4467745291122596</v>
+        <v>0.4474043556272251</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1409540</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1349343</v>
+        <v>1351524</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1465859</v>
+        <v>1472457</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4287512975080446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4104407375649151</v>
+        <v>0.4111043322316271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4458825040846877</v>
+        <v>0.4478893346650988</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2260</v>
@@ -6313,19 +6313,19 @@
         <v>2416078</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2361173</v>
+        <v>2358467</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2472878</v>
+        <v>2471738</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6926701486013268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6769292678587836</v>
+        <v>0.6761535652121501</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7089542670157717</v>
+        <v>0.7086273664838838</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3614</v>
@@ -6334,19 +6334,19 @@
         <v>3825617</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3748440</v>
+        <v>3744173</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3911812</v>
+        <v>3913320</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5646159386943982</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5532254708877404</v>
+        <v>0.5525956443727746</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.577337281607297</v>
+        <v>0.5775597471355743</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>166243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136716</v>
+        <v>136566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>199033</v>
+        <v>200585</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4076649376492578</v>
+        <v>0.4076649376492577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.335259433599839</v>
+        <v>0.3348906073451568</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4880735305458518</v>
+        <v>0.4918798367902334</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -6702,19 +6702,19 @@
         <v>112841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91070</v>
+        <v>90390</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135954</v>
+        <v>137606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3112740205458615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2512201601488915</v>
+        <v>0.2493442671068625</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3750321915141265</v>
+        <v>0.3795905167388518</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -6723,19 +6723,19 @@
         <v>279083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240900</v>
+        <v>236474</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318651</v>
+        <v>316841</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3623025681706571</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3127331993691984</v>
+        <v>0.3069869559833855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4136685911085318</v>
+        <v>0.4113190502416452</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>241550</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>208760</v>
+        <v>207208</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271077</v>
+        <v>271227</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5923350623507424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5119264694541482</v>
+        <v>0.5081201632097666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6647405664001611</v>
+        <v>0.6651093926548431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -6773,19 +6773,19 @@
         <v>249671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226558</v>
+        <v>224906</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271442</v>
+        <v>272122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6887259794541385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6249678084858739</v>
+        <v>0.6204094832611485</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7487798398511085</v>
+        <v>0.7506557328931376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>242</v>
@@ -6794,19 +6794,19 @@
         <v>491222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>451654</v>
+        <v>453464</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529405</v>
+        <v>533831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6376974318293428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5863314088914688</v>
+        <v>0.5886809497583548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6872668006308017</v>
+        <v>0.6930130440166147</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>249464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218983</v>
+        <v>221163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>275501</v>
+        <v>277388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.523105692929126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4591906596123289</v>
+        <v>0.4637601712746853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5777026120183791</v>
+        <v>0.5816612011049809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -6919,19 +6919,19 @@
         <v>152991</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132453</v>
+        <v>133560</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175406</v>
+        <v>177172</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3059187474924399</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.264851453408953</v>
+        <v>0.2670643874342975</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3507400333889791</v>
+        <v>0.3542716691801888</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -6940,19 +6940,19 @@
         <v>402455</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>367542</v>
+        <v>367388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443439</v>
+        <v>443202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4119320553617988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3761970786366842</v>
+        <v>0.3760386957875309</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4538806175222868</v>
+        <v>0.4536386527966118</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>227426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>201389</v>
+        <v>199502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257907</v>
+        <v>255727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4768943070708739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4222973879816212</v>
+        <v>0.4183387988950192</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5408093403876711</v>
+        <v>0.5362398287253145</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -6990,19 +6990,19 @@
         <v>347112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>324697</v>
+        <v>322931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>367650</v>
+        <v>366543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6940812525075601</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6492599666110209</v>
+        <v>0.6457283308198113</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.735148546591047</v>
+        <v>0.7329356125657025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>465</v>
@@ -7011,19 +7011,19 @@
         <v>574539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>533555</v>
+        <v>533792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>609452</v>
+        <v>609606</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5880679446382012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5461193824777132</v>
+        <v>0.5463613472033881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6238029213633158</v>
+        <v>0.6239613042124691</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>312784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>287071</v>
+        <v>285793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>341526</v>
+        <v>338518</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5047675354591467</v>
+        <v>0.5047675354591465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4632729174236329</v>
+        <v>0.4612102453000072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.551151311224081</v>
+        <v>0.5462970631427472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -7136,19 +7136,19 @@
         <v>169936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153800</v>
+        <v>151573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189076</v>
+        <v>188038</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2738631253294848</v>
+        <v>0.2738631253294849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2478585540802821</v>
+        <v>0.2442697178301997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3047078801731617</v>
+        <v>0.3030358242236662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>499</v>
@@ -7157,19 +7157,19 @@
         <v>482720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>450788</v>
+        <v>446356</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>515909</v>
+        <v>515808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3892357219304772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.363488105555986</v>
+        <v>0.3599139172477986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4159977852108992</v>
+        <v>0.4159158561950631</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>306875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278133</v>
+        <v>281141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332588</v>
+        <v>333866</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4952324645408536</v>
+        <v>0.4952324645408533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.448848688775919</v>
+        <v>0.453702936857253</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5367270825763673</v>
+        <v>0.5387897546999931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>615</v>
@@ -7207,19 +7207,19 @@
         <v>450578</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>431438</v>
+        <v>432476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466714</v>
+        <v>468941</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7261368746705151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6952921198268381</v>
+        <v>0.6969641757763337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7521414459197177</v>
+        <v>0.7557302821698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>890</v>
@@ -7228,19 +7228,19 @@
         <v>757453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>724264</v>
+        <v>724365</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>789385</v>
+        <v>793817</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6107642780695226</v>
+        <v>0.6107642780695227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5840022147891009</v>
+        <v>0.5840841438049362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6365118944440143</v>
+        <v>0.6400860827522012</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>354936</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>329301</v>
+        <v>331028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>381773</v>
+        <v>383521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5097822873541815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4729636791026476</v>
+        <v>0.4754448825196966</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5483279663394705</v>
+        <v>0.5508379107007702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>323</v>
@@ -7353,19 +7353,19 @@
         <v>212010</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>192251</v>
+        <v>193354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232285</v>
+        <v>232840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2882570032269063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2613911512601027</v>
+        <v>0.2628910674511467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3158234848463671</v>
+        <v>0.3165782485752173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>658</v>
@@ -7374,19 +7374,19 @@
         <v>566946</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>531049</v>
+        <v>529100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>598498</v>
+        <v>604421</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3959839750608974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3709119396961322</v>
+        <v>0.369550347721143</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4180212883252133</v>
+        <v>0.4221585568707159</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>341314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314477</v>
+        <v>312729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366949</v>
+        <v>365222</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4902177126458184</v>
+        <v>0.4902177126458185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.45167203366053</v>
+        <v>0.4491620892992299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5270363208973525</v>
+        <v>0.5245551174803036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>816</v>
@@ -7424,19 +7424,19 @@
         <v>523480</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>503205</v>
+        <v>502650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>543239</v>
+        <v>542136</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7117429967730936</v>
+        <v>0.7117429967730937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6841765151536329</v>
+        <v>0.6834217514247823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.738608848739897</v>
+        <v>0.7371089325488527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1142</v>
@@ -7445,19 +7445,19 @@
         <v>864794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>833242</v>
+        <v>827319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>900691</v>
+        <v>902640</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6040160249391026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5819787116747868</v>
+        <v>0.5778414431292843</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6290880603038679</v>
+        <v>0.630449652278857</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>281793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>257544</v>
+        <v>257331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>304211</v>
+        <v>305210</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4632731270665615</v>
+        <v>0.4632731270665614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4234077377310771</v>
+        <v>0.4230567478935642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5001290781374761</v>
+        <v>0.5017708638215196</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>239</v>
@@ -7570,19 +7570,19 @@
         <v>147527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130827</v>
+        <v>130735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164429</v>
+        <v>163065</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.243308525670712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2157662765010808</v>
+        <v>0.2156148430042689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2711845928686692</v>
+        <v>0.2689354685034004</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>545</v>
@@ -7591,19 +7591,19 @@
         <v>429319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>403701</v>
+        <v>403843</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>461151</v>
+        <v>458681</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3534654445405696</v>
+        <v>0.3534654445405697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3323729762364326</v>
+        <v>0.3324899254644415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3796726739265263</v>
+        <v>0.3776390605585844</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>326472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>304054</v>
+        <v>303055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350721</v>
+        <v>350934</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5367268729334385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4998709218625237</v>
+        <v>0.4982291361784804</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5765922622689227</v>
+        <v>0.5769432521064357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>759</v>
@@ -7641,19 +7641,19 @@
         <v>458809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>441907</v>
+        <v>443271</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475509</v>
+        <v>475601</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.756691474329288</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7288154071313306</v>
+        <v>0.7310645314965997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7842337234989193</v>
+        <v>0.7843851569957313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1115</v>
@@ -7662,19 +7662,19 @@
         <v>785282</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>753450</v>
+        <v>755920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>810900</v>
+        <v>810758</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6465345554594303</v>
+        <v>0.6465345554594305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6203273260734737</v>
+        <v>0.6223609394414156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6676270237635673</v>
+        <v>0.6675100745355583</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>207876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>190579</v>
+        <v>191294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>224794</v>
+        <v>226080</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5118148420047532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.469227665450467</v>
+        <v>0.4709880466454365</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5534689307402296</v>
+        <v>0.556636054037924</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>152</v>
@@ -7787,19 +7787,19 @@
         <v>80812</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69718</v>
+        <v>68692</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93671</v>
+        <v>92579</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1842973544252846</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1589966858789505</v>
+        <v>0.1566558307083975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2136221172449149</v>
+        <v>0.2111327007442652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>440</v>
@@ -7808,19 +7808,19 @@
         <v>288688</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>266943</v>
+        <v>266365</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>310420</v>
+        <v>310953</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3417873516124767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3160428814405545</v>
+        <v>0.3153587699934391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3675168053787906</v>
+        <v>0.3681478321968676</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>198278</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181360</v>
+        <v>180074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>215575</v>
+        <v>214860</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4881851579952468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4465310692597705</v>
+        <v>0.443363945962076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5307723345495331</v>
+        <v>0.5290119533545635</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>674</v>
@@ -7858,19 +7858,19 @@
         <v>357675</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344816</v>
+        <v>345908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>368769</v>
+        <v>369795</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8157026455747153</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7863778827550854</v>
+        <v>0.7888672992557347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8410033141210497</v>
+        <v>0.8433441692916025</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>955</v>
@@ -7879,19 +7879,19 @@
         <v>555953</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>534221</v>
+        <v>533688</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>577698</v>
+        <v>578276</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6582126483875232</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6324831946212093</v>
+        <v>0.631852167803132</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6839571185594453</v>
+        <v>0.684641230006561</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>109317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95116</v>
+        <v>96440</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123079</v>
+        <v>124189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.352891252476407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3070504329852885</v>
+        <v>0.3113233540738259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3973202759134367</v>
+        <v>0.4009003898465673</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -8004,19 +8004,19 @@
         <v>31533</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24304</v>
+        <v>23783</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41308</v>
+        <v>41313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0682073833692329</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05257110073328804</v>
+        <v>0.05144442789546497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08935031111091939</v>
+        <v>0.08936269918174732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>219</v>
@@ -8025,19 +8025,19 @@
         <v>140850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123632</v>
+        <v>124705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>158357</v>
+        <v>159759</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1824274959033684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1601276029897685</v>
+        <v>0.161517665880575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2051032927731768</v>
+        <v>0.2069183740021666</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>200457</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>186695</v>
+        <v>185585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>214658</v>
+        <v>213334</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.647108747523593</v>
+        <v>0.6471087475235928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6026797240865632</v>
+        <v>0.5990996101534328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6929495670147114</v>
+        <v>0.6886766459261739</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>823</v>
@@ -8075,19 +8075,19 @@
         <v>430778</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>421003</v>
+        <v>420998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>438007</v>
+        <v>438528</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9317926166307671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9106496888890805</v>
+        <v>0.9106373008182523</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9474288992667119</v>
+        <v>0.948555572104535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1116</v>
@@ -8096,19 +8096,19 @@
         <v>631235</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>613728</v>
+        <v>612326</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>648453</v>
+        <v>647380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8175725040966315</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7948967072268232</v>
+        <v>0.7930816259978333</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8398723970102316</v>
+        <v>0.8384823341194252</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1682411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1618351</v>
+        <v>1620061</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1743631</v>
+        <v>1748100</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.477308954453693</v>
+        <v>0.4773089544536929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4591346901349567</v>
+        <v>0.4596197230485993</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4946772610502415</v>
+        <v>0.495945228327597</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1206</v>
@@ -8221,19 +8221,19 @@
         <v>907649</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>857278</v>
+        <v>857440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>955803</v>
+        <v>952784</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2436149707299671</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2300951768024301</v>
+        <v>0.2301385217580398</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2565394608114676</v>
+        <v>0.2557292656032618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2794</v>
@@ -8242,19 +8242,19 @@
         <v>2590061</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2502898</v>
+        <v>2509831</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2671654</v>
+        <v>2674325</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.357223222035976</v>
+        <v>0.3572232220359761</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3452016612806921</v>
+        <v>0.3461578198209461</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.36847657135079</v>
+        <v>0.3688449789425959</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1842374</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1781154</v>
+        <v>1776685</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1906434</v>
+        <v>1904724</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5226910455463071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5053227389497585</v>
+        <v>0.504054771672403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5408653098650433</v>
+        <v>0.5403802769514007</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4145</v>
@@ -8292,19 +8292,19 @@
         <v>2818105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2769951</v>
+        <v>2772970</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2868476</v>
+        <v>2868314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7563850292700329</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7434605391885325</v>
+        <v>0.7442707343967382</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7699048231975698</v>
+        <v>0.7698614782419601</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5925</v>
@@ -8313,19 +8313,19 @@
         <v>4660478</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4578885</v>
+        <v>4576214</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4747641</v>
+        <v>4740708</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.642776777964024</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6315234286492102</v>
+        <v>0.6311550210574043</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.654798338719308</v>
+        <v>0.653842180179054</v>
       </c>
     </row>
     <row r="27">
